--- a/data/trans_dic/P57b3_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P57b3_R-Provincia-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,36; 3,11</t>
+          <t>0,4; 3,25</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,83; 3,08</t>
+          <t>0,83; 3,09</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,79; 2,54</t>
+          <t>0,88; 2,6</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,48; 11,02</t>
+          <t>5,77; 11,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,89; 12,94</t>
+          <t>7,85; 12,85</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,24; 10,83</t>
+          <t>7,26; 10,79</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,93; 14,35</t>
+          <t>8,05; 14,52</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,99; 16,58</t>
+          <t>10,99; 16,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,49; 14,68</t>
+          <t>10,4; 14,74</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,27; 9,24</t>
+          <t>3,21; 9,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,86; 11,4</t>
+          <t>5,87; 11,04</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,41; 9,46</t>
+          <t>5,28; 9,24</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>10,61; 19,52</t>
+          <t>10,49; 19,41</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,89; 14,71</t>
+          <t>8,85; 14,25</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10,39; 15,27</t>
+          <t>10,65; 15,46</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>11,9; 19,09</t>
+          <t>11,92; 19,43</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>10,83; 16,43</t>
+          <t>10,65; 16,43</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>12,44; 17,03</t>
+          <t>12,33; 16,72</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,27; 10,92</t>
+          <t>6,2; 10,61</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,34; 10,88</t>
+          <t>5,31; 11,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,2; 10,02</t>
+          <t>6,08; 10,03</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>21,52; 41,44</t>
+          <t>21,51; 43,33</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>22,92; 28,54</t>
+          <t>23,08; 28,52</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>23,32; 34,29</t>
+          <t>23,43; 35,33</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>11,55; 19,24</t>
+          <t>11,56; 18,51</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>11,77; 14,16</t>
+          <t>11,73; 14,21</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>12,18; 15,52</t>
+          <t>12,23; 15,92</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P57b3_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P57b3_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,4; 3,25</t>
+          <t>0,36; 3,11</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,83; 3,09</t>
+          <t>0,83; 3,08</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,88; 2,6</t>
+          <t>0,79; 2,54</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,77; 11,57</t>
+          <t>5,48; 11,02</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,85; 12,85</t>
+          <t>7,89; 12,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,26; 10,79</t>
+          <t>7,24; 10,83</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,05; 14,52</t>
+          <t>7,93; 14,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,99; 16,73</t>
+          <t>10,99; 16,58</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,4; 14,74</t>
+          <t>10,49; 14,68</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,21; 9,35</t>
+          <t>3,27; 9,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,87; 11,04</t>
+          <t>5,86; 11,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,28; 9,24</t>
+          <t>5,41; 9,46</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>10,49; 19,41</t>
+          <t>10,61; 19,52</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,85; 14,25</t>
+          <t>8,89; 14,71</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10,65; 15,46</t>
+          <t>10,39; 15,27</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>11,92; 19,43</t>
+          <t>11,9; 19,09</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>10,65; 16,43</t>
+          <t>10,83; 16,43</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>12,33; 16,72</t>
+          <t>12,44; 17,03</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,2; 10,61</t>
+          <t>6,27; 10,92</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,31; 11,0</t>
+          <t>5,34; 10,88</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,08; 10,03</t>
+          <t>6,2; 10,02</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>21,51; 43,33</t>
+          <t>21,52; 41,44</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>23,08; 28,52</t>
+          <t>22,92; 28,54</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>23,43; 35,33</t>
+          <t>23,32; 34,29</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>11,56; 18,51</t>
+          <t>11,55; 19,24</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>11,73; 14,21</t>
+          <t>11,77; 14,16</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>12,23; 15,92</t>
+          <t>12,18; 15,52</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P57b3_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P57b3_R-Provincia-trans_dic.xlsx
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,31%</t>
+          <t>1,2%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,66%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,49%</t>
+          <t>1,39%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,36; 3,11</t>
+          <t>0,33; 2,82</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,83; 3,08</t>
+          <t>0,8; 2,95</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,79; 2,54</t>
+          <t>0,75; 2,42</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,91%</t>
+          <t>7,68%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>10,06%</t>
+          <t>10,09%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>9,02%</t>
+          <t>8,88%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,48; 11,02</t>
+          <t>5,29; 10,81</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,89; 12,94</t>
+          <t>7,92; 12,97</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,24; 10,83</t>
+          <t>7,08; 10,68</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>10,86%</t>
+          <t>10,64%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>13,65%</t>
+          <t>13,47%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>12,36%</t>
+          <t>12,13%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,93; 14,35</t>
+          <t>7,75; 14,16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,99; 16,58</t>
+          <t>10,84; 16,39</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,49; 14,68</t>
+          <t>10,28; 14,42</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,68%</t>
+          <t>5,59%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,0%</t>
+          <t>6,59%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,0%</t>
+          <t>6,19%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,27; 9,24</t>
+          <t>3,19; 9,14</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,86; 11,4</t>
+          <t>3,83; 9,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,41; 9,46</t>
+          <t>4,59; 8,61</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>14,41%</t>
+          <t>14,35%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>11,22%</t>
+          <t>11,32%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>12,68%</t>
+          <t>12,72%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>10,61; 19,52</t>
+          <t>10,57; 19,4</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,89; 14,71</t>
+          <t>9,01; 14,82</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10,39; 15,27</t>
+          <t>10,43; 15,27</t>
         </is>
       </c>
     </row>
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>15,35%</t>
+          <t>15,17%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>13,42%</t>
+          <t>13,43%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>14,38%</t>
+          <t>14,32%</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>11,9; 19,09</t>
+          <t>11,78; 18,94</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>10,83; 16,43</t>
+          <t>10,84; 16,45</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>12,44; 17,03</t>
+          <t>12,35; 16,97</t>
         </is>
       </c>
     </row>
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>8,21%</t>
+          <t>7,98%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>8,35%</t>
+          <t>7,23%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>8,29%</t>
+          <t>7,55%</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,27; 10,92</t>
+          <t>6,06; 10,56</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,34; 10,88</t>
+          <t>3,58; 10,24</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,2; 10,02</t>
+          <t>4,64; 9,38</t>
         </is>
       </c>
     </row>
@@ -906,17 +906,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>27,0%</t>
+          <t>42,94%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>25,62%</t>
+          <t>25,98%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>26,31%</t>
+          <t>35,54%</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>21,52; 41,44</t>
+          <t>21,78; 72,32</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>22,92; 28,54</t>
+          <t>23,23; 28,92</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>23,32; 34,29</t>
+          <t>23,73; 60,15</t>
         </is>
       </c>
     </row>
@@ -956,17 +956,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>13,36%</t>
+          <t>17,62%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>13,09%</t>
+          <t>12,05%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>13,22%</t>
+          <t>14,76%</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>11,55; 19,24</t>
+          <t>11,0; 39,13</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>11,77; 14,16</t>
+          <t>9,94; 13,29</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>12,18; 15,52</t>
+          <t>11,38; 25,12</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P57b3_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P57b3_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -546,7 +547,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -579,24 +580,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,33; 2,82</t>
+          <t>0,37; 2,81</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,8; 2,95</t>
+          <t>0,83; 2,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,75; 2,42</t>
+          <t>0,82; 2,54</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -629,24 +630,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,29; 10,81</t>
+          <t>5,44; 11,37</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,92; 12,97</t>
+          <t>7,83; 12,53</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,08; 10,68</t>
+          <t>7,17; 10,7</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,75; 14,16</t>
+          <t>8,07; 14,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,84; 16,39</t>
+          <t>10,85; 16,75</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,28; 14,42</t>
+          <t>10,3; 14,53</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,19; 9,14</t>
+          <t>3,16; 9,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,83; 9,54</t>
+          <t>3,83; 9,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,59; 8,61</t>
+          <t>4,44; 8,42</t>
         </is>
       </c>
     </row>
@@ -779,24 +780,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>10,57; 19,4</t>
+          <t>10,45; 19,34</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,01; 14,82</t>
+          <t>8,57; 14,53</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10,43; 15,27</t>
+          <t>10,39; 15,38</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -829,24 +830,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>11,78; 18,94</t>
+          <t>11,72; 19,06</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>10,84; 16,45</t>
+          <t>10,76; 16,28</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>12,35; 16,97</t>
+          <t>12,14; 16,82</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,06; 10,56</t>
+          <t>5,97; 10,44</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,58; 10,24</t>
+          <t>3,01; 10,24</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,64; 9,38</t>
+          <t>4,71; 9,45</t>
         </is>
       </c>
     </row>
@@ -929,17 +930,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>21,78; 72,32</t>
+          <t>21,68; 74,43</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>23,23; 28,92</t>
+          <t>23,09; 28,84</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>23,73; 60,15</t>
+          <t>23,71; 59,49</t>
         </is>
       </c>
     </row>
@@ -979,17 +980,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>11,0; 39,13</t>
+          <t>11,01; 35,34</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>9,94; 13,29</t>
+          <t>9,96; 13,25</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>11,38; 25,12</t>
+          <t>11,32; 25,91</t>
         </is>
       </c>
     </row>
@@ -1015,4 +1016,758 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con sentimiento de soledad al menos buena parte del tiempo</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>3744</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>4624</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>8367</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>1139; 8757</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>2407; 8639</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>4956; 15285</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>39733</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>51849</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>91582</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>28142; 58840</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>40215; 64368</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>73926; 110328</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>33633</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>47022</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>80656</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>25511; 45117</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>37892; 58480</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>68516; 96658</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>17463</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>31237</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>48699</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>9887; 28426</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>18156; 44900</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>34921; 66227</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>25641</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>23576</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>49217</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>18687; 34576</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>17844; 30260</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>40214; 59519</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>40916</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>34510</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>75426</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>31596; 51386</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>27660; 41845</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>63960; 88601</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>49829</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>61185</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>111014</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>37255; 65147</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>25516; 86703</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>69235; 138973</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>308</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>498</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>398375</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>186487</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>584863</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>201096; 690476</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>165704; 207004</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>390075; 978887</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>460</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>783</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>1243</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>609334</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>440490</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>1049824</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>380783; 1222117</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>364203; 484388</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>805141; 1843337</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>